--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-node-group-rule/hzero-node-group-rule-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-node-group-rule/hzero-node-group-rule-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="222">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>help_type</t>
+  </si>
+  <si>
+    <t>help_value</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2109,6 +2121,12 @@
     <t>api</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2172,6 +2190,9 @@
     <t>默认权限集</t>
   </si>
   <si>
+    <t>Default permission set</t>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2196,6 +2217,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2259,84 +2283,24 @@
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.create</t>
+    <t>hzero-iam.hiam-permission-site-level.pageApi</t>
   </si>
   <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.detail</t>
+    <t>hzero-iam.hiam-user-site-level.paging</t>
   </si>
   <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.disable</t>
+    <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
   </si>
   <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.enable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-22</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.page</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-23</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.pageEnabledRules</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-24</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.pageNodeRuleTenant</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.remove</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.removeRuleTenant</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-27</t>
-  </si>
-  <si>
-    <t>hzero-admin.node-rule.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-28</t>
-  </si>
-  <si>
-    <t>hzero-iam.hiam-permission-site-level.pageApi</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
-    <t>hzero-iam.hiam-user-site-level.paging</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
-  </si>
-  <si>
     <t>hzero-iam.tenant-site-level.pagingTenants</t>
   </si>
   <si>
@@ -2361,7 +2325,7 @@
     <t>#h_parent_role_assign_level</t>
   </si>
   <si>
-    <t>h_parent_role_assign_level_val</t>
+    <t>#h_parent_role_assign_level_val</t>
   </si>
   <si>
     <t>is_enabled</t>
@@ -2391,6 +2355,9 @@
     <t>tpl_role_name:en_US</t>
   </si>
   <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2403,7 +2370,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>abcf</t>
+    <t/>
   </si>
   <si>
     <t>organization</t>
@@ -2421,9 +2388,6 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>abce</t>
-  </si>
-  <si>
     <t>iam_role-10</t>
   </si>
   <si>
@@ -2518,6 +2482,9 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -2552,7 +2519,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2869,6 +2836,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3104,7 +3076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3230,6 +3202,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3815,7 +3788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3922,214 +3895,250 @@
       <c r="Y7" t="s">
         <v>74</v>
       </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>节点组规则菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
         <v>91</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AC9" t="s">
         <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <f>节点组规则菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <f>节点组规则菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +4148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4178,283 +4187,308 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F8">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F10">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F12">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F13">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F14">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F17">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F18">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G31" t="s">
-        <v>163</v>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +4498,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4503,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4521,235 +4555,271 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>170</v>
-      </c>
-      <c r="O7" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="O7" t="s" s="76">
+        <v>159</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="S7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>177</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>178</v>
+        <v>165</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>166</v>
       </c>
       <c r="X7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Y7" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="V8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="V9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10">
         <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="V10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="Y10" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -4760,33 +4830,42 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" t="s" s="77">
-        <v>199</v>
-      </c>
-      <c r="E12" t="s" s="78">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s" s="78">
+        <v>187</v>
+      </c>
+      <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
-        <v>200</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>201</v>
+      <c r="F12" t="s" s="80">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s" s="81">
+        <v>189</v>
       </c>
       <c r="H12" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>204</v>
+        <v>191</v>
+      </c>
+      <c r="J12" t="s" s="82">
+        <v>192</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F13">
         <f>角色权限!$E$8</f>
@@ -4795,13 +4874,22 @@
         <f>节点组规则菜单!$E$11</f>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4899,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4850,75 +4938,87 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>197</v>
+      </c>
+      <c r="D7" t="s" s="83">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
-        <v>211</v>
-      </c>
-      <c r="G7" t="s" s="85">
+      <c r="F7" t="s" s="85">
+        <v>199</v>
+      </c>
+      <c r="G7" t="s" s="86">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" t="s">
         <v>204</v>
       </c>
-      <c r="H7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M7" t="s">
-        <v>216</v>
-      </c>
       <c r="N7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="O7" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -4929,33 +5029,39 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" t="s" s="86">
-        <v>225</v>
-      </c>
-      <c r="E10" t="s" s="87">
-        <v>226</v>
-      </c>
-      <c r="F10" t="s" s="88">
-        <v>227</v>
-      </c>
-      <c r="G10" t="s" s="89">
-        <v>228</v>
-      </c>
-      <c r="H10" t="s" s="90">
-        <v>229</v>
+        <v>213</v>
+      </c>
+      <c r="D10" t="s" s="87">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s" s="88">
+        <v>215</v>
+      </c>
+      <c r="F10" t="s" s="89">
+        <v>216</v>
+      </c>
+      <c r="G10" t="s" s="90">
+        <v>217</v>
+      </c>
+      <c r="H10" t="s" s="91">
+        <v>218</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G11">
         <f>节点组规则菜单!$E$8</f>
@@ -4964,15 +5070,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G12">
         <f>节点组规则菜单!$E$10</f>
@@ -4981,15 +5093,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G13">
         <f>节点组规则菜单!$E$11</f>
@@ -4998,15 +5116,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <f>节点组规则菜单!$E$9</f>
@@ -5015,7 +5139,13 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-node-group-rule/hzero-node-group-rule-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-node-group-rule/hzero-node-group-rule-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2253,57 +2253,45 @@
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.pageEnabledRules</t>
+    <t>hzero-admin.node-rule-site.pageNodeRuleTenant</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.pageNodeRuleTenant</t>
+    <t>hzero-admin.node-rule-site.remove</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.remove</t>
+    <t>hzero-admin.node-rule-site.removeRuleTenant</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.removeRuleTenant</t>
+    <t>hzero-admin.node-rule-site.update</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.update</t>
+    <t>hzero-iam.hiam-permission-site-level.pageApi</t>
   </si>
   <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-iam.hiam-permission-site-level.pageApi</t>
+    <t>hzero-iam.hiam-user-site-level.paging</t>
   </si>
   <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-iam.hiam-user-site-level.paging</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-20</t>
-  </si>
-  <si>
     <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
-  </si>
-  <si>
-    <t>hzero-iam.tenant-site-level.pagingTenants</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2370,12 +2358,12 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -2425,18 +2413,6 @@
   </si>
   <si>
     <t>#type</t>
-  </si>
-  <si>
-    <t>iam_role_permission-13</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3983,8 +3959,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>节点组规则菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>97</v>
@@ -4042,8 +4019,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>节点组规则菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -4101,8 +4079,9 @@
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>节点组规则菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>115</v>
@@ -4148,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4215,8 +4194,9 @@
       <c r="E8" t="s">
         <v>124</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
         <v>125</v>
@@ -4235,8 +4215,9 @@
       <c r="E9" t="s">
         <v>126</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
         <v>127</v>
@@ -4248,15 +4229,16 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
         <v>128</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
         <v>129</v>
@@ -4268,15 +4250,16 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
         <v>130</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
         <v>131</v>
@@ -4288,15 +4271,16 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
         <v>132</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
         <v>133</v>
@@ -4308,15 +4292,16 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
         <v>134</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
         <v>135</v>
@@ -4328,15 +4313,16 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
         <v>136</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
         <v>137</v>
@@ -4348,15 +4334,16 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
         <v>138</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
         <v>139</v>
@@ -4368,15 +4355,16 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
         <v>140</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
         <v>141</v>
@@ -4388,15 +4376,16 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
         <v>142</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
@@ -4408,15 +4397,16 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
         <v>144</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
         <v>145</v>
@@ -4428,15 +4418,16 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <f>节点组规则菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
         <v>147</v>
@@ -4448,47 +4439,7 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="G21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4449,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4537,10 +4488,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4555,58 +4506,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" t="s" s="74">
+        <v>153</v>
+      </c>
+      <c r="N7" t="s" s="75">
+        <v>154</v>
+      </c>
+      <c r="O7" t="s" s="76">
+        <v>155</v>
+      </c>
+      <c r="P7" t="s">
         <v>156</v>
       </c>
-      <c r="M7" t="s" s="74">
+      <c r="Q7" t="s">
         <v>157</v>
       </c>
-      <c r="N7" t="s" s="75">
+      <c r="R7" t="s">
         <v>158</v>
       </c>
-      <c r="O7" t="s" s="76">
+      <c r="S7" t="s">
         <v>159</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" t="s">
-        <v>162</v>
-      </c>
-      <c r="S7" t="s">
-        <v>163</v>
-      </c>
-      <c r="T7" t="s">
-        <v>164</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>161</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="X7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z7" t="s">
         <v>165</v>
-      </c>
-      <c r="W7" t="s" s="77">
-        <v>166</v>
-      </c>
-      <c r="X7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>169</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -4617,19 +4568,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -4644,7 +4592,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -4665,10 +4613,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="V8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -4680,27 +4628,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -4712,7 +4657,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -4733,10 +4678,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -4748,24 +4693,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -4773,11 +4718,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -4798,19 +4744,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -4819,7 +4765,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -4830,28 +4776,28 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
+        <v>184</v>
+      </c>
+      <c r="G12" t="s" s="81">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s" s="82">
         <v>188</v>
-      </c>
-      <c r="G12" t="s" s="81">
-        <v>189</v>
-      </c>
-      <c r="H12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" t="s">
-        <v>191</v>
-      </c>
-      <c r="J12" t="s" s="82">
-        <v>192</v>
       </c>
       <c r="K12" t="s">
         <v>123</v>
@@ -4861,35 +4807,6 @@
       </c>
       <c r="M12" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G13">
-        <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="H13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" t="s">
-        <v>195</v>
-      </c>
-      <c r="J13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4938,43 +4855,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s" s="86">
+        <v>188</v>
+      </c>
+      <c r="H7" t="s">
         <v>192</v>
       </c>
-      <c r="H7" t="s">
-        <v>200</v>
-      </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -4985,25 +4902,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5029,25 +4946,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s" s="89">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s" s="91">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
         <v>77</v>
@@ -5058,19 +4975,21 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11">
+        <v>201</v>
+      </c>
+      <c r="G11" t="n">
         <f>节点组规则菜单!$E$8</f>
-      </c>
-      <c r="H11">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
         <v>91</v>
@@ -5081,19 +5000,21 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12">
+        <v>201</v>
+      </c>
+      <c r="G12" t="n">
         <f>节点组规则菜单!$E$10</f>
-      </c>
-      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J12" t="s">
         <v>91</v>
@@ -5104,19 +5025,21 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13">
+        <v>201</v>
+      </c>
+      <c r="G13" t="n">
         <f>节点组规则菜单!$E$11</f>
-      </c>
-      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J13" t="s">
         <v>91</v>
@@ -5127,19 +5050,21 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14">
+        <v>201</v>
+      </c>
+      <c r="G14" t="n">
         <f>节点组规则菜单!$E$9</f>
-      </c>
-      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J14" t="s">
         <v>91</v>
